--- a/src/test/resources/examplefiles/small-with-clipping-and-breaking.xlsx
+++ b/src/test/resources/examplefiles/small-with-clipping-and-breaking.xlsx
@@ -57,7 +57,7 @@
     <t>9880 54 325</t>
   </si>
   <si>
-    <t xml:space="preserve">I am a very long text! I am a very long text! I am a very long text! I am a very long text! I am a very long text! I am a very long text! I am a very long text! I am a very long text! I am a very long text! I am a very long text! I am a very long text! </t>
+    <t>I am a very long text! I am a very long text! I am a very long text! I am a very long text! I am a very long text! I am a very long text! I am a very long text! I am a very long text! I am a very long text! I am a very long text! I am a very long text! I am a very long text!</t>
   </si>
   <si>
     <t>9881 54 326</t>
